--- a/analysis/카테고리별_판매량.xlsx
+++ b/analysis/카테고리별_판매량.xlsx
@@ -452,37 +452,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.093067</v>
+        <v>3499934000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>하의</t>
+          <t>슬리퍼</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.219451</v>
+        <v>675125000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>슬리퍼</t>
+          <t>단화</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.00295</v>
+        <v>365680000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>단화</t>
+          <t>하의</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.291540000000001</v>
+        <v>326012000</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.78067</v>
+        <v>134316000</v>
       </c>
     </row>
   </sheetData>
